--- a/Nubank.xlsx
+++ b/Nubank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Downloads\Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Facul\Primeiro ano\Segundo semestre\Ciência dos dados\Projeto 2\Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACADF90-D759-43DE-B714-D054BA9FE831}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5FBC6E-92BA-4DB4-BFA8-CA065088A484}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="486">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
     <t>Teste</t>
-  </si>
-  <si>
-    <t>relevância</t>
   </si>
   <si>
     <t>que saudade do meu nubank</t>
@@ -1890,7 +1887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1904,12 +1901,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -1925,7 +1922,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -1933,7 +1930,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
@@ -1941,7 +1938,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
         <v>0</v>
@@ -1949,7 +1946,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1965,7 +1962,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6">
         <v>1</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="6">
         <v>1</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -1997,7 +1994,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
         <v>1</v>
@@ -2013,7 +2010,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6">
         <v>1</v>
@@ -2021,7 +2018,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6">
         <v>0</v>
@@ -2029,7 +2026,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -2037,7 +2034,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6">
         <v>0</v>
@@ -2053,7 +2050,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -2061,7 +2058,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -2093,7 +2090,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
@@ -2101,7 +2098,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -2109,7 +2106,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="6">
         <v>1</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="6">
         <v>1</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6">
         <v>1</v>
@@ -2141,7 +2138,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -2157,7 +2154,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
@@ -2165,7 +2162,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -2173,7 +2170,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="6">
         <v>1</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -2205,7 +2202,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
@@ -2213,7 +2210,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -2229,7 +2226,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -2237,7 +2234,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B44" s="6">
         <v>1</v>
@@ -2253,7 +2250,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B46" s="6">
         <v>1</v>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -2277,7 +2274,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="6">
         <v>1</v>
@@ -2285,7 +2282,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -2293,7 +2290,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="6">
         <v>1</v>
@@ -2301,7 +2298,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -2317,7 +2314,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
@@ -2325,7 +2322,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
@@ -2333,7 +2330,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B55" s="6">
         <v>0</v>
@@ -2341,7 +2338,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -2349,7 +2346,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="6">
         <v>1</v>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="6">
         <v>1</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -2381,7 +2378,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="6">
         <v>1</v>
@@ -2389,7 +2386,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="6">
         <v>1</v>
@@ -2397,7 +2394,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -2413,7 +2410,7 @@
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" s="6">
         <v>1</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
@@ -2429,7 +2426,7 @@
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="6">
         <v>0</v>
@@ -2437,7 +2434,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" s="6">
         <v>0</v>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" s="6">
         <v>0</v>
@@ -2453,7 +2450,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
@@ -2461,7 +2458,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B71" s="6">
         <v>0</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="6">
         <v>0</v>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="6">
         <v>1</v>
@@ -2485,7 +2482,7 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B74" s="6">
         <v>0</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -2501,7 +2498,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" s="6">
         <v>0</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77" s="6">
         <v>0</v>
@@ -2517,7 +2514,7 @@
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B78" s="6">
         <v>0</v>
@@ -2525,7 +2522,7 @@
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
@@ -2533,7 +2530,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
@@ -2541,7 +2538,7 @@
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
@@ -2549,7 +2546,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -2557,7 +2554,7 @@
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" s="6">
         <v>0</v>
@@ -2565,7 +2562,7 @@
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B84" s="6">
         <v>0</v>
@@ -2573,7 +2570,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B85" s="6">
         <v>1</v>
@@ -2581,7 +2578,7 @@
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B86" s="6">
         <v>0</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" s="6">
         <v>0</v>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B88" s="6">
         <v>0</v>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -2613,7 +2610,7 @@
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B90" s="6">
         <v>0</v>
@@ -2621,7 +2618,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B91" s="6">
         <v>1</v>
@@ -2629,7 +2626,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
@@ -2637,7 +2634,7 @@
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" s="6">
         <v>1</v>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -2661,7 +2658,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B96" s="6">
         <v>1</v>
@@ -2669,7 +2666,7 @@
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B97" s="6">
         <v>1</v>
@@ -2677,7 +2674,7 @@
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -2685,7 +2682,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
@@ -2693,7 +2690,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B100" s="6">
         <v>1</v>
@@ -2701,7 +2698,7 @@
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B101" s="6">
         <v>0</v>
@@ -2709,7 +2706,7 @@
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
@@ -2717,7 +2714,7 @@
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B103" s="6">
         <v>1</v>
@@ -2725,7 +2722,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -2733,7 +2730,7 @@
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B105" s="6">
         <v>0</v>
@@ -2741,7 +2738,7 @@
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B106" s="6">
         <v>1</v>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="6">
         <v>0</v>
@@ -2757,7 +2754,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" s="6">
         <v>1</v>
@@ -2765,7 +2762,7 @@
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B109" s="6">
         <v>0</v>
@@ -2773,7 +2770,7 @@
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B110" s="6">
         <v>0</v>
@@ -2781,7 +2778,7 @@
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B111" s="6">
         <v>1</v>
@@ -2789,7 +2786,7 @@
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B112" s="6">
         <v>0</v>
@@ -2797,7 +2794,7 @@
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B113" s="6">
         <v>0</v>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B114" s="6">
         <v>0</v>
@@ -2813,7 +2810,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B115" s="6">
         <v>0</v>
@@ -2821,7 +2818,7 @@
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B116" s="6">
         <v>0</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" s="6">
         <v>0</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B118" s="6">
         <v>0</v>
@@ -2845,7 +2842,7 @@
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="6">
         <v>0</v>
@@ -2853,7 +2850,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" s="6">
         <v>1</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="6">
         <v>0</v>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="6">
         <v>0</v>
@@ -2877,7 +2874,7 @@
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="6">
         <v>0</v>
@@ -2885,7 +2882,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" s="6">
         <v>0</v>
@@ -2893,7 +2890,7 @@
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
@@ -2901,7 +2898,7 @@
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B126" s="6">
         <v>1</v>
@@ -2909,7 +2906,7 @@
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="6">
         <v>0</v>
@@ -2917,7 +2914,7 @@
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" s="6">
         <v>0</v>
@@ -2925,7 +2922,7 @@
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B129" s="6">
         <v>1</v>
@@ -2933,7 +2930,7 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B130" s="6">
         <v>1</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B131" s="6">
         <v>1</v>
@@ -2949,7 +2946,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B132" s="6">
         <v>0</v>
@@ -2957,7 +2954,7 @@
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B133" s="6">
         <v>0</v>
@@ -2965,7 +2962,7 @@
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B134" s="6">
         <v>0</v>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B135" s="6">
         <v>0</v>
@@ -2981,7 +2978,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B136" s="6">
         <v>0</v>
@@ -2989,7 +2986,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B137" s="6">
         <v>0</v>
@@ -2997,7 +2994,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B138" s="6">
         <v>0</v>
@@ -3005,7 +3002,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B139" s="6">
         <v>0</v>
@@ -3013,7 +3010,7 @@
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B140" s="6">
         <v>0</v>
@@ -3021,7 +3018,7 @@
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B141" s="6">
         <v>0</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B142" s="6">
         <v>1</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B143" s="6">
         <v>0</v>
@@ -3045,7 +3042,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B144" s="6">
         <v>0</v>
@@ -3053,7 +3050,7 @@
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B145" s="6">
         <v>1</v>
@@ -3061,7 +3058,7 @@
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B146" s="6">
         <v>0</v>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B147" s="6">
         <v>0</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B148" s="6">
         <v>0</v>
@@ -3085,7 +3082,7 @@
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B149" s="6">
         <v>1</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B150" s="6">
         <v>1</v>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B151" s="6">
         <v>1</v>
@@ -3109,7 +3106,7 @@
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B152" s="6">
         <v>1</v>
@@ -3117,7 +3114,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B153" s="6">
         <v>0</v>
@@ -3125,7 +3122,7 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B154" s="6">
         <v>1</v>
@@ -3133,7 +3130,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B155" s="6">
         <v>1</v>
@@ -3141,7 +3138,7 @@
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -3149,7 +3146,7 @@
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B157" s="6">
         <v>0</v>
@@ -3157,7 +3154,7 @@
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B158" s="6">
         <v>0</v>
@@ -3165,7 +3162,7 @@
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B159" s="6">
         <v>0</v>
@@ -3173,7 +3170,7 @@
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B160" s="6">
         <v>0</v>
@@ -3181,7 +3178,7 @@
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B161" s="6">
         <v>0</v>
@@ -3189,7 +3186,7 @@
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B162" s="6">
         <v>0</v>
@@ -3197,7 +3194,7 @@
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B163" s="6">
         <v>1</v>
@@ -3205,7 +3202,7 @@
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B164" s="6">
         <v>1</v>
@@ -3213,7 +3210,7 @@
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B165" s="6">
         <v>0</v>
@@ -3221,7 +3218,7 @@
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B166" s="6">
         <v>0</v>
@@ -3229,7 +3226,7 @@
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B167" s="6">
         <v>0</v>
@@ -3237,7 +3234,7 @@
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B168" s="6">
         <v>1</v>
@@ -3245,7 +3242,7 @@
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B169" s="6">
         <v>1</v>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B170" s="6">
         <v>1</v>
@@ -3261,7 +3258,7 @@
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B171" s="6">
         <v>1</v>
@@ -3269,7 +3266,7 @@
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B172" s="6">
         <v>1</v>
@@ -3277,7 +3274,7 @@
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B173" s="6">
         <v>1</v>
@@ -3285,7 +3282,7 @@
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B174" s="6">
         <v>0</v>
@@ -3293,7 +3290,7 @@
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B175" s="6">
         <v>0</v>
@@ -3301,7 +3298,7 @@
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B176" s="6">
         <v>1</v>
@@ -3309,7 +3306,7 @@
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B177" s="6">
         <v>1</v>
@@ -3317,7 +3314,7 @@
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B178" s="6">
         <v>1</v>
@@ -3325,7 +3322,7 @@
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B179" s="6">
         <v>0</v>
@@ -3333,7 +3330,7 @@
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B180" s="6">
         <v>0</v>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B181" s="6">
         <v>0</v>
@@ -3349,7 +3346,7 @@
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B182" s="6">
         <v>0</v>
@@ -3357,7 +3354,7 @@
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B183" s="6">
         <v>1</v>
@@ -3365,7 +3362,7 @@
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B184" s="6">
         <v>0</v>
@@ -3373,7 +3370,7 @@
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B185" s="6">
         <v>1</v>
@@ -3381,7 +3378,7 @@
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B186" s="6">
         <v>1</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B187" s="6">
         <v>0</v>
@@ -3397,7 +3394,7 @@
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B188" s="6">
         <v>0</v>
@@ -3405,7 +3402,7 @@
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B189" s="6">
         <v>1</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B190" s="6">
         <v>1</v>
@@ -3421,7 +3418,7 @@
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B191" s="6">
         <v>0</v>
@@ -3429,7 +3426,7 @@
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B192" s="6">
         <v>0</v>
@@ -3437,7 +3434,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B193" s="6">
         <v>0</v>
@@ -3445,7 +3442,7 @@
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B194" s="6">
         <v>0</v>
@@ -3453,7 +3450,7 @@
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B195" s="6">
         <v>1</v>
@@ -3461,7 +3458,7 @@
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B196" s="6">
         <v>1</v>
@@ -3469,7 +3466,7 @@
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B197" s="6">
         <v>1</v>
@@ -3477,7 +3474,7 @@
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B198" s="6">
         <v>0</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B199" s="7">
         <v>0</v>
@@ -3493,7 +3490,7 @@
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B200" s="6">
         <v>0</v>
@@ -3501,7 +3498,7 @@
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B201" s="6">
         <v>1</v>
@@ -3509,7 +3506,7 @@
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B202" s="6">
         <v>0</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B203" s="6">
         <v>0</v>
@@ -3525,7 +3522,7 @@
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B204" s="6">
         <v>0</v>
@@ -3533,7 +3530,7 @@
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B205" s="6">
         <v>0</v>
@@ -3541,7 +3538,7 @@
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B206" s="6">
         <v>1</v>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B207" s="6">
         <v>0</v>
@@ -3557,7 +3554,7 @@
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B208" s="6">
         <v>0</v>
@@ -3565,7 +3562,7 @@
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B209" s="6">
         <v>1</v>
@@ -3573,7 +3570,7 @@
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B210" s="6">
         <v>0</v>
@@ -3581,7 +3578,7 @@
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B211" s="6">
         <v>0</v>
@@ -3589,7 +3586,7 @@
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B212" s="6">
         <v>0</v>
@@ -3597,7 +3594,7 @@
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B213" s="6">
         <v>1</v>
@@ -3605,7 +3602,7 @@
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B214" s="6">
         <v>0</v>
@@ -3613,7 +3610,7 @@
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B215" s="6">
         <v>1</v>
@@ -3621,7 +3618,7 @@
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B216" s="6">
         <v>0</v>
@@ -3629,7 +3626,7 @@
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B217" s="6">
         <v>0</v>
@@ -3637,7 +3634,7 @@
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B218" s="6">
         <v>0</v>
@@ -3645,7 +3642,7 @@
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B219" s="6">
         <v>0</v>
@@ -3653,7 +3650,7 @@
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B220" s="6">
         <v>1</v>
@@ -3661,7 +3658,7 @@
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B221" s="6">
         <v>0</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B222" s="6">
         <v>0</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B223" s="6">
         <v>0</v>
@@ -3685,7 +3682,7 @@
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B224" s="6">
         <v>0</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B225" s="6">
         <v>0</v>
@@ -3701,7 +3698,7 @@
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B226" s="6">
         <v>1</v>
@@ -3709,7 +3706,7 @@
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B227" s="6">
         <v>0</v>
@@ -3717,7 +3714,7 @@
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B228" s="6">
         <v>0</v>
@@ -3725,7 +3722,7 @@
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B229" s="6">
         <v>0</v>
@@ -3733,7 +3730,7 @@
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B230" s="6">
         <v>0</v>
@@ -3741,7 +3738,7 @@
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B231" s="6">
         <v>1</v>
@@ -3749,7 +3746,7 @@
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B232" s="6">
         <v>0</v>
@@ -3757,7 +3754,7 @@
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B233" s="6">
         <v>1</v>
@@ -3765,7 +3762,7 @@
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B234" s="6">
         <v>0</v>
@@ -3773,7 +3770,7 @@
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B235" s="6">
         <v>1</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B236" s="6">
         <v>1</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B237" s="6">
         <v>0</v>
@@ -3797,7 +3794,7 @@
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B238" s="6">
         <v>1</v>
@@ -3805,7 +3802,7 @@
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B239" s="6">
         <v>0</v>
@@ -3813,7 +3810,7 @@
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B240" s="6">
         <v>0</v>
@@ -3821,7 +3818,7 @@
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B241" s="6">
         <v>1</v>
@@ -3829,7 +3826,7 @@
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B242" s="6">
         <v>0</v>
@@ -3837,7 +3834,7 @@
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B243" s="6">
         <v>1</v>
@@ -3845,7 +3842,7 @@
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B244" s="6">
         <v>0</v>
@@ -3853,7 +3850,7 @@
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B245" s="6">
         <v>0</v>
@@ -3861,7 +3858,7 @@
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B246" s="6">
         <v>1</v>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B247" s="6">
         <v>0</v>
@@ -3877,7 +3874,7 @@
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B248" s="6">
         <v>0</v>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B249" s="6">
         <v>1</v>
@@ -3893,7 +3890,7 @@
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B250" s="6">
         <v>1</v>
@@ -3901,7 +3898,7 @@
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B251" s="6">
         <v>0</v>
@@ -3909,7 +3906,7 @@
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B252" s="6">
         <v>1</v>
@@ -3917,7 +3914,7 @@
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B253" s="6">
         <v>0</v>
@@ -3925,7 +3922,7 @@
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B254" s="6">
         <v>1</v>
@@ -3933,7 +3930,7 @@
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B255" s="6">
         <v>0</v>
@@ -3941,7 +3938,7 @@
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B256" s="6">
         <v>1</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B257" s="6">
         <v>1</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B258" s="6">
         <v>0</v>
@@ -3965,7 +3962,7 @@
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B259" s="6">
         <v>0</v>
@@ -3973,7 +3970,7 @@
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B260" s="6">
         <v>0</v>
@@ -3981,7 +3978,7 @@
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B261" s="6">
         <v>1</v>
@@ -3989,7 +3986,7 @@
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B262" s="6">
         <v>1</v>
@@ -3997,7 +3994,7 @@
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B263" s="6">
         <v>1</v>
@@ -4005,7 +4002,7 @@
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B264" s="6">
         <v>0</v>
@@ -4013,7 +4010,7 @@
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B265" s="6">
         <v>0</v>
@@ -4021,7 +4018,7 @@
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B266" s="6">
         <v>1</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B267" s="6">
         <v>1</v>
@@ -4037,7 +4034,7 @@
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B268" s="6">
         <v>0</v>
@@ -4045,7 +4042,7 @@
     </row>
     <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B269" s="6">
         <v>0</v>
@@ -4053,7 +4050,7 @@
     </row>
     <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B270" s="6">
         <v>1</v>
@@ -4061,7 +4058,7 @@
     </row>
     <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B271" s="6">
         <v>0</v>
@@ -4069,7 +4066,7 @@
     </row>
     <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B272" s="6">
         <v>0</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B273" s="6">
         <v>0</v>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B274" s="6">
         <v>0</v>
@@ -4093,7 +4090,7 @@
     </row>
     <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B275" s="6">
         <v>0</v>
@@ -4101,7 +4098,7 @@
     </row>
     <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B276" s="6">
         <v>1</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B277" s="6">
         <v>0</v>
@@ -4117,7 +4114,7 @@
     </row>
     <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B278" s="6">
         <v>0</v>
@@ -4125,7 +4122,7 @@
     </row>
     <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B279" s="6">
         <v>0</v>
@@ -4133,7 +4130,7 @@
     </row>
     <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B280" s="6">
         <v>0</v>
@@ -4141,7 +4138,7 @@
     </row>
     <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B281" s="6">
         <v>1</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B282" s="6">
         <v>1</v>
@@ -4157,7 +4154,7 @@
     </row>
     <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B283" s="6">
         <v>0</v>
@@ -4165,7 +4162,7 @@
     </row>
     <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B284" s="6">
         <v>0</v>
@@ -4173,7 +4170,7 @@
     </row>
     <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B285" s="6">
         <v>1</v>
@@ -4181,7 +4178,7 @@
     </row>
     <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B286" s="6">
         <v>0</v>
@@ -4189,7 +4186,7 @@
     </row>
     <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B287" s="6">
         <v>0</v>
@@ -4197,7 +4194,7 @@
     </row>
     <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B288" s="6">
         <v>0</v>
@@ -4205,7 +4202,7 @@
     </row>
     <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B289" s="6">
         <v>1</v>
@@ -4213,7 +4210,7 @@
     </row>
     <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B290" s="6">
         <v>0</v>
@@ -4221,7 +4218,7 @@
     </row>
     <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B291" s="6">
         <v>1</v>
@@ -4229,7 +4226,7 @@
     </row>
     <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B292" s="6">
         <v>1</v>
@@ -4237,7 +4234,7 @@
     </row>
     <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B293" s="6">
         <v>0</v>
@@ -4245,7 +4242,7 @@
     </row>
     <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B294" s="6">
         <v>1</v>
@@ -4253,7 +4250,7 @@
     </row>
     <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B295" s="6">
         <v>0</v>
@@ -4261,7 +4258,7 @@
     </row>
     <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B296" s="6">
         <v>0</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B297" s="6">
         <v>0</v>
@@ -4277,7 +4274,7 @@
     </row>
     <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B298" s="6">
         <v>1</v>
@@ -4285,7 +4282,7 @@
     </row>
     <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B299" s="6">
         <v>0</v>
@@ -4293,7 +4290,7 @@
     </row>
     <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B300" s="6">
         <v>1</v>
@@ -4301,7 +4298,7 @@
     </row>
     <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B301" s="6">
         <v>1</v>
@@ -5016,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5032,15 +5029,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -5048,7 +5043,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -5056,7 +5051,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
@@ -5064,7 +5059,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>1</v>
@@ -5072,7 +5067,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
@@ -5080,7 +5075,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6">
         <v>0</v>
@@ -5088,7 +5083,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6">
         <v>0</v>
@@ -5096,7 +5091,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>0</v>
@@ -5104,7 +5099,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>0</v>
@@ -5112,7 +5107,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6">
         <v>0</v>
@@ -5120,7 +5115,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6">
         <v>0</v>
@@ -5128,7 +5123,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -5136,7 +5131,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6">
         <v>0</v>
@@ -5144,7 +5139,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6">
         <v>0</v>
@@ -5152,7 +5147,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -5160,7 +5155,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6">
         <v>0</v>
@@ -5168,7 +5163,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="6">
         <v>0</v>
@@ -5176,7 +5171,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
@@ -5184,7 +5179,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6">
         <v>0</v>
@@ -5192,7 +5187,7 @@
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
@@ -5200,7 +5195,7 @@
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -5208,7 +5203,7 @@
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
@@ -5216,7 +5211,7 @@
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="6">
         <v>1</v>
@@ -5224,7 +5219,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -5232,7 +5227,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -5240,7 +5235,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -5248,7 +5243,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="6">
         <v>0</v>
@@ -5256,7 +5251,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="6">
         <v>0</v>
@@ -5264,7 +5259,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="6">
         <v>0</v>
@@ -5272,7 +5267,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -5280,7 +5275,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -5288,7 +5283,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -5296,7 +5291,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="6">
         <v>0</v>
@@ -5304,7 +5299,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="6">
         <v>1</v>
@@ -5312,7 +5307,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="6">
         <v>0</v>
@@ -5320,7 +5315,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="6">
         <v>0</v>
@@ -5328,7 +5323,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="6">
         <v>1</v>
@@ -5336,7 +5331,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="6">
         <v>0</v>
@@ -5344,7 +5339,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
@@ -5352,7 +5347,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="6">
         <v>1</v>
@@ -5360,7 +5355,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
@@ -5368,7 +5363,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -5376,7 +5371,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -5384,7 +5379,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -5392,7 +5387,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -5400,7 +5395,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="6">
         <v>1</v>
@@ -5408,7 +5403,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="6">
         <v>0</v>
@@ -5416,7 +5411,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" s="6">
         <v>1</v>
@@ -5424,7 +5419,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -5432,7 +5427,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="6">
         <v>1</v>
@@ -5440,7 +5435,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -5448,7 +5443,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="6">
         <v>0</v>
@@ -5456,7 +5451,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" s="6">
         <v>1</v>
@@ -5464,7 +5459,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="6">
         <v>1</v>
@@ -5472,7 +5467,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -5480,7 +5475,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" s="6">
         <v>1</v>
@@ -5488,7 +5483,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -5496,7 +5491,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -5504,7 +5499,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -5512,7 +5507,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -5520,7 +5515,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -5528,7 +5523,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -5536,7 +5531,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -5544,7 +5539,7 @@
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="6">
         <v>1</v>
@@ -5552,7 +5547,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" s="6">
         <v>0</v>
@@ -5560,7 +5555,7 @@
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="6">
         <v>0</v>
@@ -5568,7 +5563,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="6">
         <v>1</v>
@@ -5576,7 +5571,7 @@
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="6">
         <v>0</v>
@@ -5584,7 +5579,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B70" s="6">
         <v>0</v>
@@ -5592,7 +5587,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" s="6">
         <v>1</v>
@@ -5600,7 +5595,7 @@
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="6">
         <v>1</v>
@@ -5608,7 +5603,7 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" s="6">
         <v>1</v>
@@ -5616,7 +5611,7 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74" s="6">
         <v>1</v>
@@ -5624,7 +5619,7 @@
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" s="6">
         <v>0</v>
@@ -5632,7 +5627,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B76" s="6">
         <v>0</v>
@@ -5640,7 +5635,7 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B77" s="6">
         <v>0</v>
@@ -5648,7 +5643,7 @@
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B78" s="6">
         <v>1</v>
@@ -5656,7 +5651,7 @@
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B79" s="6">
         <v>1</v>
@@ -5664,7 +5659,7 @@
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" s="6">
         <v>1</v>
@@ -5672,7 +5667,7 @@
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="6">
         <v>1</v>
@@ -5680,7 +5675,7 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="6">
         <v>0</v>
@@ -5688,7 +5683,7 @@
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B83" s="6">
         <v>1</v>
@@ -5696,7 +5691,7 @@
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="6">
         <v>0</v>
@@ -5704,7 +5699,7 @@
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85" s="6">
         <v>0</v>
@@ -5712,7 +5707,7 @@
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="6">
         <v>1</v>
@@ -5720,7 +5715,7 @@
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B87" s="6">
         <v>1</v>
@@ -5728,7 +5723,7 @@
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B88" s="6">
         <v>1</v>
@@ -5736,7 +5731,7 @@
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B89" s="6">
         <v>1</v>
@@ -5744,7 +5739,7 @@
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B90" s="6">
         <v>1</v>
@@ -5752,7 +5747,7 @@
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B91" s="6">
         <v>0</v>
@@ -5760,7 +5755,7 @@
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B92" s="6">
         <v>0</v>
@@ -5768,7 +5763,7 @@
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B93" s="6">
         <v>0</v>
@@ -5776,7 +5771,7 @@
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B94" s="6">
         <v>0</v>
@@ -5784,7 +5779,7 @@
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B95" s="6">
         <v>0</v>
@@ -5792,7 +5787,7 @@
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" s="6">
         <v>0</v>
@@ -5800,7 +5795,7 @@
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B97" s="6">
         <v>0</v>
@@ -5808,7 +5803,7 @@
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B98" s="6">
         <v>0</v>
@@ -5816,7 +5811,7 @@
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B99" s="6">
         <v>0</v>
@@ -5824,7 +5819,7 @@
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B100" s="6">
         <v>0</v>
@@ -5832,7 +5827,7 @@
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101" s="6">
         <v>1</v>
@@ -5840,7 +5835,7 @@
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B102" s="6">
         <v>0</v>
@@ -5848,7 +5843,7 @@
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="6">
         <v>0</v>
@@ -5856,7 +5851,7 @@
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B104" s="6">
         <v>0</v>
@@ -5864,7 +5859,7 @@
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105" s="6">
         <v>0</v>
@@ -5872,7 +5867,7 @@
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B106" s="6">
         <v>0</v>
@@ -5880,7 +5875,7 @@
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" s="6">
         <v>1</v>
@@ -5888,7 +5883,7 @@
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B108" s="6">
         <v>1</v>
@@ -5896,7 +5891,7 @@
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B109" s="6">
         <v>0</v>
@@ -5904,7 +5899,7 @@
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B110" s="6">
         <v>1</v>
@@ -5912,7 +5907,7 @@
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B111" s="6">
         <v>0</v>
@@ -5920,7 +5915,7 @@
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B112" s="6">
         <v>1</v>
@@ -5928,7 +5923,7 @@
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B113" s="6">
         <v>0</v>
@@ -5936,7 +5931,7 @@
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B114" s="6">
         <v>0</v>
@@ -5944,7 +5939,7 @@
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B115" s="6">
         <v>0</v>
@@ -5952,7 +5947,7 @@
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B116" s="6">
         <v>0</v>
@@ -5960,7 +5955,7 @@
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B117" s="6">
         <v>0</v>
@@ -5968,7 +5963,7 @@
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B118" s="6">
         <v>1</v>
@@ -5976,7 +5971,7 @@
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B119" s="6">
         <v>1</v>
@@ -5984,7 +5979,7 @@
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B120" s="6">
         <v>0</v>
@@ -5992,7 +5987,7 @@
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B121" s="6">
         <v>1</v>
@@ -6000,7 +5995,7 @@
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B122" s="6">
         <v>0</v>
@@ -6008,7 +6003,7 @@
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B123" s="6">
         <v>1</v>
@@ -6016,7 +6011,7 @@
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B124" s="6">
         <v>1</v>
@@ -6024,7 +6019,7 @@
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B125" s="6">
         <v>0</v>
@@ -6032,7 +6027,7 @@
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B126" s="6">
         <v>1</v>
@@ -6040,7 +6035,7 @@
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B127" s="6">
         <v>1</v>
@@ -6048,7 +6043,7 @@
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B128" s="6">
         <v>1</v>
@@ -6056,7 +6051,7 @@
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B129" s="6">
         <v>1</v>
@@ -6064,7 +6059,7 @@
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130" s="6">
         <v>0</v>
@@ -6072,7 +6067,7 @@
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B131" s="6">
         <v>0</v>
@@ -6080,7 +6075,7 @@
     </row>
     <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B132" s="6">
         <v>0</v>
@@ -6088,7 +6083,7 @@
     </row>
     <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B133" s="6">
         <v>0</v>
@@ -6096,7 +6091,7 @@
     </row>
     <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B134" s="6">
         <v>0</v>
@@ -6104,7 +6099,7 @@
     </row>
     <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B135" s="6">
         <v>1</v>
@@ -6112,7 +6107,7 @@
     </row>
     <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B136" s="6">
         <v>0</v>
@@ -6120,7 +6115,7 @@
     </row>
     <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B137" s="6">
         <v>1</v>
@@ -6128,7 +6123,7 @@
     </row>
     <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B138" s="6">
         <v>0</v>
@@ -6136,7 +6131,7 @@
     </row>
     <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B139" s="6">
         <v>1</v>
@@ -6144,7 +6139,7 @@
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B140" s="6">
         <v>1</v>
@@ -6152,7 +6147,7 @@
     </row>
     <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B141" s="6">
         <v>1</v>
@@ -6160,7 +6155,7 @@
     </row>
     <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B142" s="6">
         <v>1</v>
@@ -6168,7 +6163,7 @@
     </row>
     <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B143" s="6">
         <v>1</v>
@@ -6176,7 +6171,7 @@
     </row>
     <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B144" s="6">
         <v>0</v>
@@ -6184,7 +6179,7 @@
     </row>
     <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B145" s="6">
         <v>0</v>
@@ -6192,7 +6187,7 @@
     </row>
     <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B146" s="6">
         <v>1</v>
@@ -6200,7 +6195,7 @@
     </row>
     <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B147" s="6">
         <v>0</v>
@@ -6208,7 +6203,7 @@
     </row>
     <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B148" s="6">
         <v>0</v>
@@ -6216,7 +6211,7 @@
     </row>
     <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B149" s="6">
         <v>1</v>
@@ -6224,7 +6219,7 @@
     </row>
     <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B150" s="6">
         <v>1</v>
@@ -6232,7 +6227,7 @@
     </row>
     <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B151" s="6">
         <v>1</v>
@@ -6240,7 +6235,7 @@
     </row>
     <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B152" s="6">
         <v>1</v>
@@ -6248,7 +6243,7 @@
     </row>
     <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B153" s="6">
         <v>1</v>
@@ -6256,7 +6251,7 @@
     </row>
     <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B154" s="6">
         <v>1</v>
@@ -6264,7 +6259,7 @@
     </row>
     <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B155" s="6">
         <v>1</v>
@@ -6272,7 +6267,7 @@
     </row>
     <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B156" s="6">
         <v>1</v>
@@ -6280,7 +6275,7 @@
     </row>
     <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B157" s="6">
         <v>1</v>
@@ -6288,7 +6283,7 @@
     </row>
     <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B158" s="6">
         <v>0</v>
@@ -6296,7 +6291,7 @@
     </row>
     <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B159" s="6">
         <v>1</v>
@@ -6304,7 +6299,7 @@
     </row>
     <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B160" s="6">
         <v>0</v>
@@ -6312,7 +6307,7 @@
     </row>
     <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B161" s="6">
         <v>0</v>
@@ -6320,7 +6315,7 @@
     </row>
     <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B162" s="6">
         <v>0</v>
@@ -6328,7 +6323,7 @@
     </row>
     <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B163" s="6">
         <v>1</v>
@@ -6336,7 +6331,7 @@
     </row>
     <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B164" s="6">
         <v>0</v>
@@ -6344,7 +6339,7 @@
     </row>
     <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B165" s="6">
         <v>1</v>
@@ -6352,7 +6347,7 @@
     </row>
     <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B166" s="6">
         <v>1</v>
@@ -6360,7 +6355,7 @@
     </row>
     <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B167" s="6">
         <v>0</v>
@@ -6368,7 +6363,7 @@
     </row>
     <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B168" s="6">
         <v>1</v>
@@ -6376,7 +6371,7 @@
     </row>
     <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B169" s="6">
         <v>0</v>
@@ -6384,7 +6379,7 @@
     </row>
     <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B170" s="6">
         <v>0</v>
@@ -6392,7 +6387,7 @@
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B171" s="6">
         <v>1</v>
@@ -6400,7 +6395,7 @@
     </row>
     <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B172" s="6">
         <v>1</v>
@@ -6408,7 +6403,7 @@
     </row>
     <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B173" s="6">
         <v>0</v>
@@ -6416,7 +6411,7 @@
     </row>
     <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B174" s="6">
         <v>1</v>
@@ -6424,7 +6419,7 @@
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B175" s="6">
         <v>1</v>
@@ -6432,7 +6427,7 @@
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B176" s="6">
         <v>0</v>
@@ -6440,7 +6435,7 @@
     </row>
     <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B177" s="6">
         <v>1</v>
@@ -6448,7 +6443,7 @@
     </row>
     <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B178" s="6">
         <v>1</v>
@@ -6456,7 +6451,7 @@
     </row>
     <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B179" s="6">
         <v>0</v>
@@ -6464,7 +6459,7 @@
     </row>
     <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B180" s="6">
         <v>0</v>
@@ -6472,7 +6467,7 @@
     </row>
     <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B181" s="6">
         <v>0</v>
@@ -6480,7 +6475,7 @@
     </row>
     <row r="182" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B182" s="6">
         <v>0</v>
@@ -6488,7 +6483,7 @@
     </row>
     <row r="183" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B183" s="6">
         <v>0</v>
@@ -6496,7 +6491,7 @@
     </row>
     <row r="184" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B184" s="6">
         <v>0</v>
@@ -6504,7 +6499,7 @@
     </row>
     <row r="185" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B185" s="6">
         <v>1</v>
@@ -6512,7 +6507,7 @@
     </row>
     <row r="186" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B186" s="6">
         <v>1</v>
@@ -6520,7 +6515,7 @@
     </row>
     <row r="187" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B187" s="6">
         <v>1</v>
@@ -6528,7 +6523,7 @@
     </row>
     <row r="188" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B188" s="6">
         <v>1</v>
@@ -6536,7 +6531,7 @@
     </row>
     <row r="189" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B189" s="6">
         <v>0</v>
@@ -6544,7 +6539,7 @@
     </row>
     <row r="190" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B190" s="6">
         <v>0</v>
@@ -6552,7 +6547,7 @@
     </row>
     <row r="191" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B191" s="6">
         <v>1</v>
@@ -6560,7 +6555,7 @@
     </row>
     <row r="192" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B192" s="6">
         <v>0</v>
@@ -6568,7 +6563,7 @@
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B193" s="6">
         <v>0</v>
@@ -6576,7 +6571,7 @@
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B194" s="6">
         <v>0</v>
@@ -6584,7 +6579,7 @@
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B195" s="6">
         <v>1</v>
@@ -6592,7 +6587,7 @@
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B196" s="6">
         <v>1</v>
@@ -6600,7 +6595,7 @@
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B197" s="6">
         <v>1</v>
@@ -6608,7 +6603,7 @@
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B198" s="6">
         <v>0</v>
@@ -6616,7 +6611,7 @@
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B199" s="6">
         <v>1</v>
@@ -6624,7 +6619,7 @@
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B200" s="6">
         <v>0</v>
@@ -6632,7 +6627,7 @@
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B201" s="6">
         <v>1</v>
